--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>236.169519575466</v>
+        <v>646.9946178343822</v>
       </c>
       <c r="R2">
-        <v>236.169519575466</v>
+        <v>5822.951560509439</v>
       </c>
       <c r="S2">
-        <v>0.0001934564303612641</v>
+        <v>0.0004783706824084859</v>
       </c>
       <c r="T2">
-        <v>0.0001934564303612641</v>
+        <v>0.000478370682408486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>759.0039218052711</v>
+        <v>1737.314177108329</v>
       </c>
       <c r="R3">
-        <v>759.0039218052711</v>
+        <v>15635.82759397496</v>
       </c>
       <c r="S3">
-        <v>0.0006217321761359987</v>
+        <v>0.001284524083435249</v>
       </c>
       <c r="T3">
-        <v>0.0006217321761359987</v>
+        <v>0.001284524083435249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>1007.665310221905</v>
+        <v>2485.080633317639</v>
       </c>
       <c r="R4">
-        <v>1007.665310221905</v>
+        <v>22365.72569985875</v>
       </c>
       <c r="S4">
-        <v>0.000825421223978543</v>
+        <v>0.001837402793827534</v>
       </c>
       <c r="T4">
-        <v>0.000825421223978543</v>
+        <v>0.001837402793827534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>262.4474800880263</v>
+        <v>786.6131332194062</v>
       </c>
       <c r="R5">
-        <v>262.4474800880263</v>
+        <v>7079.518198974655</v>
       </c>
       <c r="S5">
-        <v>0.0002149818179179329</v>
+        <v>0.0005816009143772632</v>
       </c>
       <c r="T5">
-        <v>0.0002149818179179329</v>
+        <v>0.0005816009143772632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>126272.9355823734</v>
+        <v>153086.5583095555</v>
       </c>
       <c r="R6">
-        <v>126272.9355823734</v>
+        <v>1377779.024785999</v>
       </c>
       <c r="S6">
-        <v>0.1034354958798904</v>
+        <v>0.1131881461568116</v>
       </c>
       <c r="T6">
-        <v>0.1034354958798904</v>
+        <v>0.1131881461568117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>405817.2007004503</v>
+        <v>411069.0270749547</v>
       </c>
       <c r="R7">
-        <v>405817.2007004503</v>
+        <v>3699621.243674592</v>
       </c>
       <c r="S7">
-        <v>0.3324220126620669</v>
+        <v>0.303933549952923</v>
       </c>
       <c r="T7">
-        <v>0.3324220126620669</v>
+        <v>0.303933549952923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>538769.1732403436</v>
+        <v>587999.3910145803</v>
       </c>
       <c r="R8">
-        <v>538769.1732403436</v>
+        <v>5291994.519131223</v>
       </c>
       <c r="S8">
-        <v>0.4413285898668269</v>
+        <v>0.4347511744022289</v>
       </c>
       <c r="T8">
-        <v>0.4413285898668269</v>
+        <v>0.434751174402229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>140322.9925965191</v>
+        <v>186121.945942493</v>
       </c>
       <c r="R9">
-        <v>140322.9925965191</v>
+        <v>1675097.513482436</v>
       </c>
       <c r="S9">
-        <v>0.1149444911186275</v>
+        <v>0.1376136367095668</v>
       </c>
       <c r="T9">
-        <v>0.1149444911186275</v>
+        <v>0.1376136367095668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>68.01015749430988</v>
+        <v>85.77678857813333</v>
       </c>
       <c r="R10">
-        <v>68.01015749430988</v>
+        <v>771.9910972032001</v>
       </c>
       <c r="S10">
-        <v>5.570999306264141E-05</v>
+        <v>6.342108536277458E-05</v>
       </c>
       <c r="T10">
-        <v>5.570999306264141E-05</v>
+        <v>6.342108536277459E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>218.5717121903219</v>
+        <v>230.3283933990334</v>
       </c>
       <c r="R11">
-        <v>218.5717121903219</v>
+        <v>2072.955540591301</v>
       </c>
       <c r="S11">
-        <v>0.0001790413229204955</v>
+        <v>0.0001702987129895265</v>
       </c>
       <c r="T11">
-        <v>0.0001790413229204955</v>
+        <v>0.0001702987129895265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>290.179175419992</v>
+        <v>329.4652385165067</v>
       </c>
       <c r="R12">
-        <v>290.179175419992</v>
+        <v>2965.18714664856</v>
       </c>
       <c r="S12">
-        <v>0.0002376980210775617</v>
+        <v>0.0002435978702675391</v>
       </c>
       <c r="T12">
-        <v>0.0002376980210775617</v>
+        <v>0.0002435978702675392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N13">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q13">
-        <v>75.57746862023782</v>
+        <v>104.2870320108533</v>
       </c>
       <c r="R13">
-        <v>75.57746862023782</v>
+        <v>938.58328809768</v>
       </c>
       <c r="S13">
-        <v>6.19086972836038E-05</v>
+        <v>7.710706904544581E-05</v>
       </c>
       <c r="T13">
-        <v>6.19086972836038E-05</v>
+        <v>7.710706904544581E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H14">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J14">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N14">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q14">
-        <v>697.3956923074868</v>
+        <v>893.8040077259376</v>
       </c>
       <c r="R14">
-        <v>697.3956923074868</v>
+        <v>8044.236069533438</v>
       </c>
       <c r="S14">
-        <v>0.0005712662727419308</v>
+        <v>0.0006608550076451266</v>
       </c>
       <c r="T14">
-        <v>0.0005712662727419308</v>
+        <v>0.0006608550076451268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H15">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J15">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N15">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q15">
-        <v>2241.297126161714</v>
+        <v>2400.048364198301</v>
       </c>
       <c r="R15">
-        <v>2241.297126161714</v>
+        <v>21600.43527778471</v>
       </c>
       <c r="S15">
-        <v>0.001835941158645809</v>
+        <v>0.001774532186431273</v>
       </c>
       <c r="T15">
-        <v>0.001835941158645809</v>
+        <v>0.001774532186431273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H16">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J16">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N16">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q16">
-        <v>2975.580624881988</v>
+        <v>3433.065698469217</v>
       </c>
       <c r="R16">
-        <v>2975.580624881988</v>
+        <v>30897.59128622295</v>
       </c>
       <c r="S16">
-        <v>0.002437423791929536</v>
+        <v>0.002538317840149754</v>
       </c>
       <c r="T16">
-        <v>0.002437423791929536</v>
+        <v>0.002538317840149755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.4040530211861</v>
+        <v>28.08283533333333</v>
       </c>
       <c r="H17">
-        <v>26.4040530211861</v>
+        <v>84.24850599999999</v>
       </c>
       <c r="I17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="J17">
-        <v>0.005479460789850271</v>
+        <v>0.005777169566755752</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N17">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q17">
-        <v>774.9930744634422</v>
+        <v>1086.682874356362</v>
       </c>
       <c r="R17">
-        <v>774.9930744634422</v>
+        <v>9780.145869207254</v>
       </c>
       <c r="S17">
-        <v>0.0006348295665329956</v>
+        <v>0.0008034645325295979</v>
       </c>
       <c r="T17">
-        <v>0.0006348295665329956</v>
+        <v>0.0008034645325295979</v>
       </c>
     </row>
   </sheetData>
